--- a/Datas/test_apidata.xlsx
+++ b/Datas/test_apidata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="20328" windowHeight="7584" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
   <si>
     <t>conf_key</t>
   </si>
@@ -43,6 +43,30 @@
     <t>trade</t>
   </si>
   <si>
+    <t>u_a</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>u_b</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>nihao!!!</t>
+  </si>
+  <si>
+    <t>base_url</t>
+  </si>
+  <si>
+    <t>http://httpbin.org</t>
+  </si>
+  <si>
     <t>num</t>
   </si>
   <si>
@@ -76,112 +100,169 @@
     <t>seturl</t>
   </si>
   <si>
+    <t>${base_url}</t>
+  </si>
+  <si>
+    <t>充2</t>
+  </si>
+  <si>
+    <t>get_api</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>saveparam</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>xx@162.com</t>
+  </si>
+  <si>
+    <t>充3</t>
+  </si>
+  <si>
+    <t>token1xcode</t>
+  </si>
+  <si>
+    <t>充4</t>
+  </si>
+  <si>
+    <t>a=xxxxxx</t>
+  </si>
+  <si>
+    <t>充5</t>
+  </si>
+  <si>
+    <t>savejson</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>headers,X-Amzn-Trace-Id</t>
+  </si>
+  <si>
+    <t>充6</t>
+  </si>
+  <si>
+    <t>post_pi</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>${next}</t>
+  </si>
+  <si>
+    <t>充7</t>
+  </si>
+  <si>
+    <t>basic-auth</t>
+  </si>
+  <si>
+    <t>${u_a}=${u_b}</t>
+  </si>
+  <si>
+    <t>save2dict</t>
+  </si>
+  <si>
+    <t>auser</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>${cc}mm</t>
+  </si>
+  <si>
+    <t>xcode</t>
+  </si>
+  <si>
+    <t>za={'a':'a1'}</t>
+  </si>
+  <si>
+    <t>post_api</t>
+  </si>
+  <si>
+    <t>zss=${auser}</t>
+  </si>
+  <si>
+    <t>get/${auser}</t>
+  </si>
+  <si>
+    <t>assertInJson</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>112.42.5.90</t>
+  </si>
+  <si>
+    <t>assertAbsPath</t>
+  </si>
+  <si>
+    <t>headers.Host</t>
+  </si>
+  <si>
+    <t>httpbin.org</t>
+  </si>
+  <si>
+    <t>assertResp2Json</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>assertMatch2Json</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>{'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.24.0', 'X-Amzn-Trace-Id': 'Root=1-61d174dd-65848c8208fd1b2538f132af'}</t>
+  </si>
+  <si>
+    <t>xiao111</t>
+  </si>
+  <si>
+    <t>xiao987</t>
+  </si>
+  <si>
+    <t>check_sql</t>
+  </si>
+  <si>
     <t>http://testingedu.com.cn:8081/inter/HTTP</t>
   </si>
   <si>
-    <t>${user}</t>
-  </si>
-  <si>
-    <t>post</t>
+    <t>{pwd}</t>
+  </si>
+  <si>
+    <t>addheader</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>{user}</t>
   </si>
   <si>
     <t>auth</t>
   </si>
   <si>
-    <t>充2</t>
-  </si>
-  <si>
-    <t>savejson</t>
-  </si>
-  <si>
-    <t>token1</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>addheader</t>
-  </si>
-  <si>
-    <t>${token1}</t>
-  </si>
-  <si>
-    <t>savedata</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>${pwd}</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>saveparam</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>啊</t>
-  </si>
-  <si>
-    <t>${user1}</t>
+    <t>{token}</t>
   </si>
   <si>
     <t>register</t>
   </si>
   <si>
-    <t>{"username": "", "pwd": "", "nickname":"熊明"}</t>
+    <t>{"username": "", "pwd": "123456", "nickname":"熊明"}</t>
   </si>
   <si>
     <t>assertequals</t>
-  </si>
-  <si>
-    <t>{"username": "", "pwd": ${password}, "nickname":"熊明"}</t>
-  </si>
-  <si>
-    <t>xiao111</t>
-  </si>
-  <si>
-    <t>xiao987</t>
-  </si>
-  <si>
-    <t>check_sql</t>
-  </si>
-  <si>
-    <t>{pwd}</t>
-  </si>
-  <si>
-    <t>{user}</t>
-  </si>
-  <si>
-    <t>充3</t>
-  </si>
-  <si>
-    <t>充4</t>
-  </si>
-  <si>
-    <t>充5</t>
-  </si>
-  <si>
-    <t>{token}</t>
-  </si>
-  <si>
-    <t>充6</t>
-  </si>
-  <si>
-    <t>{"username": "", "pwd": "123456", "nickname":"熊明"}</t>
-  </si>
-  <si>
-    <t>充7</t>
   </si>
 </sst>
 </file>
@@ -190,9 +271,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -211,6 +292,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -218,18 +307,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,7 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,7 +345,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,14 +376,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -286,7 +383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,10 +398,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,32 +421,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,49 +443,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,49 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,84 +623,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -572,6 +653,32 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -582,6 +689,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,24 +743,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,17 +769,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -676,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -688,19 +795,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
@@ -709,116 +816,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="7">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -844,6 +951,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1192,59 +1315,120 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="11.7777777777778" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.8888888888889" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>1234567890</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>410</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="http://httpbin.org"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1254,10 +1438,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A4:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1265,8 +1449,7 @@
     <col min="1" max="1" width="4.88888888888889" style="8" customWidth="1"/>
     <col min="2" max="2" width="5.66666666666667" style="8" customWidth="1"/>
     <col min="3" max="3" width="6.66666666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.88888888888889" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" style="8" customWidth="1"/>
+    <col min="4" max="5" width="18.6666666666667" style="8" customWidth="1"/>
     <col min="6" max="6" width="36.8888888888889" style="8" customWidth="1"/>
     <col min="8" max="8" width="11.3333333333333" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
@@ -1275,34 +1458,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1313,17 +1496,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -1336,289 +1517,154 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12"/>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="2"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="2"/>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7">
-        <v>200</v>
-      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7">
-        <v>402</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://testingedu.com.cn:8081/inter/HTTP" tooltip="http://testingedu.com.cn:8081/inter/HTTP"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1628,10 +1674,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1648,34 +1694,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1686,17 +1732,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -1709,14 +1753,18 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
@@ -1730,16 +1778,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20001</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
@@ -1753,15 +1801,17 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -1775,15 +1825,17 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
@@ -1797,15 +1849,17 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
@@ -1819,15 +1873,17 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
@@ -1838,19 +1894,11 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
@@ -1860,19 +1908,11 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="2"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
@@ -1880,21 +1920,21 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="2"/>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
@@ -1902,42 +1942,48 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7">
-        <v>200</v>
+        <v>53</v>
+      </c>
+      <c r="F13" s="4">
+        <v>20001</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="6"/>
@@ -1946,20 +1992,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -1968,29 +2016,171 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7">
-        <v>402</v>
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://testingedu.com.cn:8081/inter/HTTP" tooltip="http://testingedu.com.cn:8081/inter/HTTP"/>
+    <hyperlink ref="F3" r:id="rId1" display="xx@162.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2010,7 +2200,7 @@
   <sheetData>
     <row r="8" spans="6:7">
       <c r="F8" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G8">
         <v>123456</v>
@@ -2018,36 +2208,36 @@
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2058,16 +2248,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -2081,16 +2271,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -2102,13 +2292,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2123,16 +2313,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -2146,16 +2336,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
@@ -2169,16 +2359,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
@@ -2192,13 +2382,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7">
         <v>200</v>

--- a/Datas/test_apidata.xlsx
+++ b/Datas/test_apidata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="82">
   <si>
     <t>conf_key</t>
   </si>
@@ -106,13 +106,67 @@
     <t>充2</t>
   </si>
   <si>
+    <t>save2dict</t>
+  </si>
+  <si>
+    <t>auser</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>${cc}mm</t>
+  </si>
+  <si>
+    <t>充3</t>
+  </si>
+  <si>
+    <t>saveparam</t>
+  </si>
+  <si>
+    <t>xcode</t>
+  </si>
+  <si>
+    <t>充4</t>
+  </si>
+  <si>
     <t>get_api</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>saveparam</t>
+    <t>za={'a':'a1'}</t>
+  </si>
+  <si>
+    <t>充5</t>
+  </si>
+  <si>
+    <t>post_api</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>zss=${auser}</t>
+  </si>
+  <si>
+    <t>充6</t>
+  </si>
+  <si>
+    <t>get/${auser}</t>
+  </si>
+  <si>
+    <t>充7</t>
+  </si>
+  <si>
+    <t>savejson</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>headers,X-Amzn-Trace-Id</t>
   </si>
   <si>
     <t>email</t>
@@ -121,76 +175,22 @@
     <t>xx@162.com</t>
   </si>
   <si>
-    <t>充3</t>
-  </si>
-  <si>
     <t>token1xcode</t>
   </si>
   <si>
-    <t>充4</t>
-  </si>
-  <si>
     <t>a=xxxxxx</t>
   </si>
   <si>
-    <t>充5</t>
-  </si>
-  <si>
-    <t>savejson</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>headers,X-Amzn-Trace-Id</t>
-  </si>
-  <si>
-    <t>充6</t>
-  </si>
-  <si>
     <t>post_pi</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>${next}</t>
   </si>
   <si>
-    <t>充7</t>
-  </si>
-  <si>
     <t>basic-auth</t>
   </si>
   <si>
     <t>${u_a}=${u_b}</t>
-  </si>
-  <si>
-    <t>save2dict</t>
-  </si>
-  <si>
-    <t>auser</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>${cc}mm</t>
-  </si>
-  <si>
-    <t>xcode</t>
-  </si>
-  <si>
-    <t>za={'a':'a1'}</t>
-  </si>
-  <si>
-    <t>post_api</t>
-  </si>
-  <si>
-    <t>zss=${auser}</t>
-  </si>
-  <si>
-    <t>get/${auser}</t>
   </si>
   <si>
     <t>assertInJson</t>
@@ -270,10 +270,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -301,14 +301,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -316,7 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,21 +322,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -352,7 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +340,43 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,32 +396,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,8 +412,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,6 +443,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,13 +509,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,37 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,122 +627,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -666,14 +666,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,30 +685,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,17 +713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -767,6 +728,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -775,6 +751,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -795,16 +782,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -816,116 +803,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -958,9 +945,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1375,7 +1359,7 @@
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1386,7 +1370,7 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1397,7 +1381,7 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1408,7 +1392,7 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1417,12 +1401,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4"/>
     </row>
   </sheetData>
@@ -1441,7 +1425,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A4:$XFD7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1523,57 +1507,107 @@
       <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4">
+        <v>20001</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
@@ -1581,12 +1615,24 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
@@ -1677,7 +1723,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A11" sqref="$A11:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1757,13 +1803,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
@@ -1778,13 +1824,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7">
         <v>20001</v>
@@ -1805,13 +1851,13 @@
         <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
@@ -1826,16 +1872,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="6"/>
@@ -1850,16 +1896,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="6"/>
@@ -1877,13 +1923,13 @@
         <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="6"/>
@@ -1951,16 +1997,16 @@
         <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
@@ -1974,13 +2020,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4">
         <v>20001</v>
@@ -2001,13 +2047,13 @@
         <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="6"/>
@@ -2022,16 +2068,16 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="6"/>
@@ -2046,13 +2092,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -2071,13 +2117,13 @@
         <v>46</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6"/>
@@ -2092,7 +2138,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>58</v>
@@ -2140,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>64</v>
@@ -2162,7 +2208,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>66</v>
@@ -2292,10 +2338,10 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>77</v>
@@ -2316,7 +2362,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
@@ -2336,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>74</v>
@@ -2359,10 +2405,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>79</v>
